--- a/AD 03-19 primers.xlsx
+++ b/AD 03-19 primers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artemdegtiar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647F5931-BC8A-BF45-95CF-56F687486FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98A757B-5731-F24D-88FA-AFFD65A6BF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{8BDA0A9C-EF1A-2C42-AD80-21C883C4E795}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{8BDA0A9C-EF1A-2C42-AD80-21C883C4E795}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="506">
   <si>
     <t>oAD 42 (AD 01) FWD</t>
   </si>
@@ -155,9 +155,6 @@
     <t>gggattaagatcgctttcatCTAGTATTTCTCCTCTTTAGTAAttattaGTAAATACC</t>
   </si>
   <si>
-    <t>oAD 107 (AppA) REV</t>
-  </si>
-  <si>
     <t>CTAAAGAGGAGAAATACTAGatgaaagcgatcttaatcccatttttatc</t>
   </si>
   <si>
@@ -498,12 +495,6 @@
   </si>
   <si>
     <t>oAD 90 (DsbC) REV</t>
-  </si>
-  <si>
-    <t>oAD 73 (AD 01) REV</t>
-  </si>
-  <si>
-    <t>oAD 90 (AD 02) REV</t>
   </si>
   <si>
     <t>Source Plate</t>
@@ -1556,6 +1547,18 @@
   </si>
   <si>
     <t>AD 18</t>
+  </si>
+  <si>
+    <t>oAD 58 (AD 01/02) FWD + oAD 73 (AD 02) REV</t>
+  </si>
+  <si>
+    <t>oAD 58 (AD 01/02) FWD + oAD 59 (AD 01) REV</t>
+  </si>
+  <si>
+    <t>oAD 58 (AD 01/02) FWD</t>
+  </si>
+  <si>
+    <t>oAD 58 (AD 01/02) FWD + oAD 113 (Ad 02) REV</t>
   </si>
 </sst>
 </file>
@@ -2657,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177694B2-16DB-3B4D-B037-828F7519A71E}">
-  <dimension ref="B1:F173"/>
+  <dimension ref="B1:G173"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A84" zoomScale="134" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2671,7 +2674,8 @@
     <col min="4" max="4" width="70" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="66.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2686,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -2707,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -2820,7 +2824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="7" t="s">
         <v>6</v>
@@ -2829,7 +2833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -2838,7 +2842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -2847,7 +2851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -2856,7 +2860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
         <v>14</v>
@@ -2864,8 +2868,11 @@
       <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
         <v>16</v>
@@ -2873,8 +2880,11 @@
       <c r="D22" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -2883,7 +2893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
         <v>30</v>
@@ -2892,7 +2902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
         <v>32</v>
@@ -2901,9 +2911,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>34</v>
@@ -2912,7 +2922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -2921,7 +2931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -2930,7 +2940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
         <v>6</v>
@@ -2939,7 +2949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -2948,7 +2958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
         <v>10</v>
@@ -2957,7 +2967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -2996,39 +3006,39 @@
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -3097,102 +3107,102 @@
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
       <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
@@ -3261,102 +3271,102 @@
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
       <c r="C65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="C68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="C69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="C70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="C71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="9"/>
       <c r="C73" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
@@ -3425,389 +3435,389 @@
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="5"/>
       <c r="C83" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="5"/>
       <c r="C84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
       <c r="C91" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
       <c r="C93" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="5"/>
       <c r="C94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
       <c r="C95" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="5"/>
       <c r="C96" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="9"/>
       <c r="C97" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="C99" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="5"/>
       <c r="C100" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="5"/>
       <c r="C101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="5"/>
       <c r="C102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
       <c r="C103" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="5"/>
       <c r="C105" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="5"/>
       <c r="C107" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
       <c r="C108" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
       <c r="C109" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D110" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="5"/>
       <c r="C111" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="5"/>
       <c r="C112" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="5"/>
       <c r="C113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="5"/>
       <c r="C114" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="5"/>
       <c r="C115" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="5"/>
       <c r="C116" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="5"/>
       <c r="C117" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="5"/>
       <c r="C118" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="119" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
       <c r="C119" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="5"/>
       <c r="C121" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="5"/>
       <c r="C122" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="5"/>
       <c r="C123" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="5"/>
       <c r="C124" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
@@ -3849,416 +3859,416 @@
     <row r="129" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B129" s="9"/>
       <c r="C129" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="5"/>
       <c r="C131" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="5"/>
       <c r="C132" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="5"/>
       <c r="C133" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="5"/>
       <c r="C134" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="5"/>
       <c r="C135" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D135" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="5"/>
       <c r="C136" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D136" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="5"/>
       <c r="C137" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D137" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="5"/>
       <c r="C138" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D138" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B139" s="9"/>
       <c r="C139" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D139" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="5"/>
       <c r="C141" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="5"/>
       <c r="C142" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D142" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" s="5"/>
       <c r="C143" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="5"/>
       <c r="C144" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" s="5"/>
       <c r="C145" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="5"/>
       <c r="C146" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" s="5"/>
       <c r="C147" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="5"/>
       <c r="C148" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="149" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B149" s="9"/>
       <c r="C149" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D149" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C150" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B151" s="5"/>
       <c r="C151" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" s="5"/>
       <c r="C152" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D152" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B153" s="5"/>
       <c r="C153" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" s="5"/>
       <c r="C154" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="5"/>
       <c r="C155" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B156" s="5"/>
       <c r="C156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B157" s="5"/>
       <c r="C157" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B158" s="5"/>
       <c r="C158" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="159" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D159" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C160" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="5"/>
       <c r="C161" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D161" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="5"/>
       <c r="C162" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
       <c r="C163" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="5"/>
       <c r="C164" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" s="5"/>
       <c r="C165" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="5"/>
       <c r="C166" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="5"/>
       <c r="C167" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B168" s="5"/>
       <c r="C168" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D168" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="169" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="9"/>
       <c r="C169" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D169" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="D170" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="5"/>
       <c r="C171" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
       <c r="C172" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D172" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="173" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B173" s="9"/>
       <c r="C173" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D173" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4270,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B323A551-E24F-3049-8CE1-F3B6A959B62B}">
   <dimension ref="B1:F173"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A69" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4291,7 +4301,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>1</v>
@@ -4308,7 +4318,7 @@
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>5</v>
@@ -4325,7 +4335,7 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>9</v>
@@ -4341,7 +4351,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>13</v>
@@ -4357,7 +4367,7 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="27" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>17</v>
@@ -4373,7 +4383,7 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="27" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>21</v>
@@ -4391,7 +4401,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>27</v>
@@ -4407,7 +4417,7 @@
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>5</v>
@@ -4423,7 +4433,7 @@
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>9</v>
@@ -4439,7 +4449,7 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>13</v>
@@ -4455,7 +4465,7 @@
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="27" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>17</v>
@@ -4471,7 +4481,7 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="27" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>31</v>
@@ -4486,10 +4496,10 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>35</v>
@@ -4505,7 +4515,7 @@
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>5</v>
@@ -4521,7 +4531,7 @@
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>9</v>
@@ -4537,7 +4547,7 @@
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
       <c r="C32" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>13</v>
@@ -4553,7 +4563,7 @@
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="27" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>17</v>
@@ -4569,41 +4579,41 @@
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="27" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="28"/>
       <c r="D37" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="27"/>
       <c r="D39" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>5</v>
@@ -4619,7 +4629,7 @@
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>9</v>
@@ -4635,7 +4645,7 @@
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>13</v>
@@ -4651,7 +4661,7 @@
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="27" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>17</v>
@@ -4661,95 +4671,95 @@
       <c r="B47" s="5"/>
       <c r="C47" s="27"/>
       <c r="D47" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="27" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="27"/>
       <c r="D49" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="27" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="27"/>
       <c r="D51" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="27"/>
       <c r="D53" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="27" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="28"/>
       <c r="D55" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
       <c r="C57" s="27"/>
       <c r="D57" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
       <c r="C58" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D58" s="31" t="s">
         <v>5</v>
@@ -4765,7 +4775,7 @@
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
       <c r="C60" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D60" s="31" t="s">
         <v>9</v>
@@ -4781,7 +4791,7 @@
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
       <c r="C62" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D62" s="31" t="s">
         <v>13</v>
@@ -4797,7 +4807,7 @@
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="5"/>
       <c r="C64" s="27" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D64" s="31" t="s">
         <v>17</v>
@@ -4807,95 +4817,95 @@
       <c r="B65" s="5"/>
       <c r="C65" s="27"/>
       <c r="D65" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="27" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="27"/>
       <c r="D67" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="C68" s="27" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="C69" s="27"/>
       <c r="D69" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="C70" s="27" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="C71" s="27"/>
       <c r="D71" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="27" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="9"/>
       <c r="C73" s="28"/>
       <c r="D73" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="27"/>
       <c r="D75" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
       <c r="C76" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D76" s="31" t="s">
         <v>5</v>
@@ -4911,7 +4921,7 @@
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D78" s="31" t="s">
         <v>9</v>
@@ -4927,7 +4937,7 @@
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>13</v>
@@ -4943,7 +4953,7 @@
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="5"/>
       <c r="C82" s="27" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D82" s="31" t="s">
         <v>17</v>
@@ -4953,346 +4963,346 @@
       <c r="B83" s="5"/>
       <c r="C83" s="27"/>
       <c r="D83" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="5"/>
       <c r="C84" s="27" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="27"/>
       <c r="D85" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="27"/>
       <c r="D87" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="27" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" s="27"/>
       <c r="D89" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="27" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
       <c r="C91" s="28"/>
       <c r="D91" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
       <c r="C93" s="27"/>
       <c r="D93" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="5"/>
       <c r="C94" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
       <c r="C95" s="27"/>
       <c r="D95" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="5"/>
       <c r="C96" s="27" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="9"/>
       <c r="C97" s="28"/>
       <c r="D97" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="5"/>
       <c r="C99" s="27"/>
       <c r="D99" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="5"/>
       <c r="C100" s="27" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="5"/>
       <c r="C101" s="27"/>
       <c r="D101" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="5"/>
       <c r="C102" s="27" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
       <c r="C103" s="28"/>
       <c r="D103" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="5"/>
       <c r="C105" s="27"/>
       <c r="D105" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="5"/>
       <c r="C106" s="27" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="5"/>
       <c r="C107" s="27"/>
       <c r="D107" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="5"/>
       <c r="C108" s="27" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
       <c r="C109" s="28"/>
       <c r="D109" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="5"/>
       <c r="C111" s="27"/>
       <c r="D111" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="5"/>
       <c r="C112" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="5"/>
       <c r="C113" s="27"/>
       <c r="D113" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="5"/>
       <c r="C114" s="27" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="5"/>
       <c r="C115" s="27"/>
       <c r="D115" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="5"/>
       <c r="C116" s="27" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="5"/>
       <c r="C117" s="27"/>
       <c r="D117" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="5"/>
       <c r="C118" s="27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
       <c r="C119" s="28"/>
       <c r="D119" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="5"/>
       <c r="C121" s="27"/>
       <c r="D121" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="5"/>
       <c r="C122" s="27" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="5"/>
       <c r="C123" s="27"/>
       <c r="D123" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="5"/>
       <c r="C124" s="27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
@@ -5305,7 +5315,7 @@
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="5"/>
       <c r="C126" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D126" s="31" t="s">
         <v>13</v>
@@ -5321,7 +5331,7 @@
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="5"/>
       <c r="C128" s="27" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D128" s="31" t="s">
         <v>17</v>
@@ -5331,369 +5341,369 @@
       <c r="B129" s="9"/>
       <c r="C129" s="28"/>
       <c r="D129" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="5"/>
       <c r="C131" s="27"/>
       <c r="D131" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="5"/>
       <c r="C132" s="27" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="5"/>
       <c r="C133" s="27"/>
       <c r="D133" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="5"/>
       <c r="C134" s="27" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="5"/>
       <c r="C135" s="27"/>
       <c r="D135" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="5"/>
       <c r="C136" s="27" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="5"/>
       <c r="C137" s="27"/>
       <c r="D137" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="5"/>
       <c r="C138" s="27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B139" s="9"/>
       <c r="C139" s="28"/>
       <c r="D139" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="5"/>
       <c r="C141" s="27"/>
       <c r="D141" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="5"/>
       <c r="C142" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" s="5"/>
       <c r="C143" s="27"/>
       <c r="D143" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="5"/>
       <c r="C144" s="27" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" s="5"/>
       <c r="C145" s="27"/>
       <c r="D145" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="5"/>
       <c r="C146" s="27" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" s="5"/>
       <c r="C147" s="27"/>
       <c r="D147" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="5"/>
       <c r="C148" s="27" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B149" s="9"/>
       <c r="C149" s="28"/>
       <c r="D149" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B151" s="5"/>
       <c r="C151" s="27"/>
       <c r="D151" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" s="5"/>
       <c r="C152" s="27" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B153" s="5"/>
       <c r="C153" s="27"/>
       <c r="D153" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" s="5"/>
       <c r="C154" s="27" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="5"/>
       <c r="C155" s="27"/>
       <c r="D155" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B156" s="5"/>
       <c r="C156" s="27" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B157" s="5"/>
       <c r="C157" s="27"/>
       <c r="D157" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B158" s="5"/>
       <c r="C158" s="27" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="28"/>
       <c r="D159" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="5"/>
       <c r="C161" s="27"/>
       <c r="D161" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="5"/>
       <c r="C162" s="27" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="5"/>
       <c r="C163" s="27"/>
       <c r="D163" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="5"/>
       <c r="C164" s="27" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" s="5"/>
       <c r="C165" s="27"/>
       <c r="D165" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="5"/>
       <c r="C166" s="27" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="5"/>
       <c r="C167" s="27"/>
       <c r="D167" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B168" s="5"/>
       <c r="C168" s="27" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="9"/>
       <c r="C169" s="28"/>
       <c r="D169" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C170" s="26" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="5"/>
       <c r="C171" s="27"/>
       <c r="D171" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
       <c r="C172" s="27" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B173" s="9"/>
       <c r="C173" s="28"/>
       <c r="D173" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5793,14 +5803,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDCD59E-510E-124B-9A2F-867E5CB26A93}">
   <dimension ref="B1:BA71"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Z6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="26" width="8.83203125" style="17" customWidth="1"/>
+    <col min="3" max="19" width="8.83203125" style="17" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="17" customWidth="1"/>
+    <col min="21" max="26" width="8.83203125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5882,7 +5894,7 @@
     </row>
     <row r="3" spans="2:28" s="15" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="B3" s="58" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>0</v>
@@ -5933,130 +5945,130 @@
         <v>32</v>
       </c>
       <c r="S3" s="55" t="s">
-        <v>44</v>
+        <v>504</v>
       </c>
       <c r="T3" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U3" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V3" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W3" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X3" s="55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z3" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB3" s="21"/>
     </row>
     <row r="4" spans="2:28" ht="56" x14ac:dyDescent="0.2">
       <c r="B4" s="56" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F4" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>66</v>
-      </c>
       <c r="H4" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O4" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P4" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S4" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T4" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U4" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V4" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W4" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="X4" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="X4" s="38" t="s">
-        <v>133</v>
-      </c>
       <c r="Y4" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z4" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB4" s="12"/>
     </row>
     <row r="5" spans="2:28" ht="56" x14ac:dyDescent="0.2">
       <c r="B5" s="56" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>34</v>
@@ -6065,46 +6077,46 @@
         <v>36</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>38</v>
+        <v>485</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R5" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S5" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="T5" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="T5" s="38" t="s">
-        <v>139</v>
-      </c>
       <c r="U5" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V5" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W5" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X5" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y5" s="39"/>
       <c r="Z5" s="39"/>
@@ -6112,7 +6124,7 @@
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="51"/>
@@ -6142,7 +6154,7 @@
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B7" s="56" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="51"/>
@@ -6172,7 +6184,7 @@
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B8" s="56" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="51"/>
@@ -6202,7 +6214,7 @@
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B9" s="56" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="51"/>
@@ -6232,7 +6244,7 @@
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B10" s="56" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="51"/>
@@ -6262,7 +6274,7 @@
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B11" s="56" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="51"/>
@@ -6292,7 +6304,7 @@
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B12" s="56" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="51"/>
@@ -6322,7 +6334,7 @@
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B13" s="56" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="51"/>
@@ -6352,7 +6364,7 @@
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B14" s="56" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="51"/>
@@ -6382,7 +6394,7 @@
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B15" s="56" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="51"/>
@@ -6412,7 +6424,7 @@
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B16" s="56" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="51"/>
@@ -6442,7 +6454,7 @@
     </row>
     <row r="17" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B17" s="56" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="51"/>
@@ -6472,7 +6484,7 @@
     </row>
     <row r="18" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B18" s="56" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="51"/>
@@ -6502,7 +6514,7 @@
     </row>
     <row r="19" spans="2:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="57" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="51"/>
@@ -6621,312 +6633,312 @@
     </row>
     <row r="25" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B25" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C25" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="G25" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="H25" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="I25" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="J25" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="K25" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="L25" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="M25" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="N25" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="O25" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="P25" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="N25" s="21" t="s">
+      <c r="Q25" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="R25" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="P25" s="21" t="s">
+      <c r="S25" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="Q25" s="21" t="s">
+      <c r="T25" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="R25" s="21" t="s">
+      <c r="U25" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="S25" s="21" t="s">
+      <c r="V25" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="T25" s="21" t="s">
+      <c r="W25" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="U25" s="21" t="s">
+      <c r="X25" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="V25" s="21" t="s">
+      <c r="Y25" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="W25" s="21" t="s">
+      <c r="Z25" s="21" t="s">
         <v>386</v>
-      </c>
-      <c r="X25" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y25" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z25" s="21" t="s">
-        <v>389</v>
       </c>
       <c r="BA25" s="24"/>
     </row>
     <row r="26" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B26" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C26" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="G26" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="H26" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="I26" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="J26" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="K26" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="L26" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="M26" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="N26" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="K26" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="L26" s="21" t="s">
+      <c r="O26" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="P26" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="Q26" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="O26" s="21" t="s">
+      <c r="R26" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="P26" s="21" t="s">
+      <c r="S26" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="Q26" s="21" t="s">
+      <c r="T26" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="U26" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="S26" s="21" t="s">
+      <c r="V26" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="T26" s="21" t="s">
+      <c r="W26" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="U26" s="21" t="s">
+      <c r="X26" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="V26" s="21" t="s">
+      <c r="Y26" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="W26" s="21" t="s">
+      <c r="Z26" s="21" t="s">
         <v>409</v>
-      </c>
-      <c r="X26" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y26" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z26" s="21" t="s">
-        <v>412</v>
       </c>
       <c r="BA26" s="24"/>
     </row>
     <row r="27" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B27" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C27" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="G27" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="H27" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="I27" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="J27" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="K27" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="L27" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="M27" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="N27" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="O27" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="P27" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="N27" s="23" t="s">
+      <c r="Q27" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="R27" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="P27" s="23" t="s">
+      <c r="S27" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="Q27" s="23" t="s">
+      <c r="T27" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="R27" s="23" t="s">
+      <c r="U27" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="S27" s="23" t="s">
+      <c r="V27" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="T27" s="23" t="s">
+      <c r="W27" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="U27" s="23" t="s">
+      <c r="X27" s="23" t="s">
         <v>431</v>
-      </c>
-      <c r="V27" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="W27" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="X27" s="23" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="28" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C28" s="21"/>
     </row>
     <row r="29" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B29" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C29" s="12"/>
     </row>
     <row r="30" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C30" s="12"/>
     </row>
     <row r="31" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C31" s="12"/>
     </row>
     <row r="32" spans="2:53" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C32" s="12"/>
     </row>
     <row r="33" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B33" s="22" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C33" s="12"/>
     </row>
     <row r="34" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C34" s="12"/>
     </row>
     <row r="35" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B35" s="22" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C35" s="12"/>
     </row>
     <row r="36" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B36" s="22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C36" s="12"/>
     </row>
     <row r="37" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B37" s="22" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C37" s="12"/>
     </row>
     <row r="38" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B38" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B39" s="22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C39" s="12"/>
     </row>
     <row r="40" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B40" s="22" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C40" s="12"/>
     </row>
     <row r="41" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B41" s="22" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C41" s="12"/>
       <c r="AC41" s="12"/>
@@ -7057,47 +7069,47 @@
     </row>
     <row r="63" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB63" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB64" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB65" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB66" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB67" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB68" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB69" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB70" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB71" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -7110,8 +7122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37716000-CFB8-B947-A99F-00C84EA17882}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7216,98 +7228,98 @@
     </row>
     <row r="3" spans="1:26" s="33" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="80" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D3" s="77"/>
       <c r="E3" s="77" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F3" s="77"/>
       <c r="G3" s="77" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H3" s="77"/>
       <c r="I3" s="77" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J3" s="77"/>
       <c r="K3" s="77" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L3" s="77"/>
       <c r="M3" s="77" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N3" s="77"/>
       <c r="O3" s="78" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P3" s="78"/>
       <c r="Q3" s="78" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="R3" s="78"/>
       <c r="S3" s="78" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="T3" s="78"/>
       <c r="U3" s="78" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="V3" s="78"/>
       <c r="W3" s="78" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="X3" s="78"/>
       <c r="Y3" s="78" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z3" s="78"/>
     </row>
     <row r="4" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="81" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="34" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="34" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L4" s="34"/>
       <c r="M4" s="34" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="N4" s="34"/>
       <c r="O4" s="35"/>
       <c r="P4" s="63" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="63"/>
       <c r="R4" s="63" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="S4" s="63"/>
       <c r="T4" s="36"/>
@@ -7320,45 +7332,45 @@
     </row>
     <row r="5" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="82" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J5" s="37"/>
       <c r="K5" s="37" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L5" s="37"/>
       <c r="M5" s="37" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N5" s="37"/>
       <c r="O5" s="37" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="P5" s="37"/>
       <c r="Q5" s="37" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="R5" s="37"/>
       <c r="S5" s="37" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="T5" s="37"/>
       <c r="U5" s="38"/>
@@ -7370,45 +7382,45 @@
     </row>
     <row r="6" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="83" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N6" s="40"/>
       <c r="O6" s="40" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P6" s="40"/>
       <c r="Q6" s="40" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="R6" s="40"/>
       <c r="S6" s="40" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="T6" s="40"/>
       <c r="U6" s="39"/>
@@ -7420,45 +7432,45 @@
     </row>
     <row r="7" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="84" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H7" s="41"/>
       <c r="I7" s="41" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N7" s="41"/>
       <c r="O7" s="41" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P7" s="41"/>
       <c r="Q7" s="41" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="R7" s="41"/>
       <c r="S7" s="41" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="T7" s="41"/>
       <c r="U7" s="39"/>
@@ -7470,47 +7482,47 @@
     </row>
     <row r="8" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="85" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="39"/>
       <c r="J8" s="43" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K8" s="43"/>
       <c r="L8" s="43" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M8" s="43"/>
       <c r="N8" s="43" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="O8" s="43"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="44" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="R8" s="44"/>
       <c r="S8" s="44" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="T8" s="44"/>
       <c r="U8" s="44" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="V8" s="44"/>
       <c r="W8" s="39"/>
@@ -7520,50 +7532,50 @@
     </row>
     <row r="9" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="86" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="45" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J9" s="45"/>
       <c r="K9" s="45" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L9" s="45"/>
       <c r="M9" s="39"/>
       <c r="N9" s="46" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O9" s="46"/>
       <c r="P9" s="46" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="Q9" s="46"/>
       <c r="R9" s="46" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="S9" s="46"/>
       <c r="T9" s="46" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="U9" s="46"/>
       <c r="V9" s="46" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="W9" s="46"/>
       <c r="X9" s="39"/>
@@ -7572,50 +7584,50 @@
     </row>
     <row r="10" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="87" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="47" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J10" s="47"/>
       <c r="K10" s="47" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L10" s="47"/>
       <c r="M10" s="39"/>
       <c r="N10" s="48" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O10" s="48"/>
       <c r="P10" s="48" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="48"/>
       <c r="R10" s="48" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S10" s="48"/>
       <c r="T10" s="48" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="U10" s="48"/>
       <c r="V10" s="48" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="W10" s="48"/>
       <c r="X10" s="39"/>
@@ -7624,50 +7636,50 @@
     </row>
     <row r="11" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="88" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="49" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="49" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J11" s="49"/>
       <c r="K11" s="49" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L11" s="49"/>
       <c r="M11" s="39"/>
       <c r="N11" s="50" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="O11" s="50"/>
       <c r="P11" s="50" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q11" s="50"/>
       <c r="R11" s="50" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="S11" s="50"/>
       <c r="T11" s="50" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="U11" s="50"/>
       <c r="V11" s="50" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="W11" s="50"/>
       <c r="X11" s="39"/>
@@ -7676,10 +7688,10 @@
     </row>
     <row r="12" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C12" s="72"/>
       <c r="D12" s="36"/>
@@ -7708,10 +7720,10 @@
     </row>
     <row r="13" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C13" s="72"/>
       <c r="D13" s="36"/>
@@ -7740,10 +7752,10 @@
     </row>
     <row r="14" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="91" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="36"/>
@@ -7772,10 +7784,10 @@
     </row>
     <row r="15" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C15" s="72"/>
       <c r="D15" s="36"/>
@@ -7804,10 +7816,10 @@
     </row>
     <row r="16" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="93" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C16" s="72"/>
       <c r="D16" s="36"/>
@@ -7836,10 +7848,10 @@
     </row>
     <row r="17" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="94" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C17" s="72"/>
       <c r="D17" s="36"/>
@@ -7868,10 +7880,10 @@
     </row>
     <row r="18" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="95" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C18" s="72"/>
       <c r="D18" s="36"/>
@@ -7900,7 +7912,7 @@
     </row>
     <row r="19" spans="1:26" s="24" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="75" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C19" s="72"/>
       <c r="D19" s="36"/>
@@ -7937,8 +7949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3823CE-3745-0F49-9AF3-72E931B961A5}">
   <dimension ref="B1:F181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7952,33 +7964,33 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" t="s">
-        <v>163</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -7986,16 +7998,16 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
         <v>161</v>
-      </c>
-      <c r="D3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" t="s">
-        <v>164</v>
       </c>
       <c r="F3">
         <v>500</v>
@@ -8003,16 +8015,16 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
         <v>162</v>
-      </c>
-      <c r="E4" t="s">
-        <v>165</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -8020,16 +8032,16 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F5">
         <v>500</v>
@@ -8037,16 +8049,16 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F6">
         <v>500</v>
@@ -8054,16 +8066,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F7">
         <v>500</v>
@@ -8071,16 +8083,16 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F8">
         <v>500</v>
@@ -8088,16 +8100,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F9">
         <v>500</v>
@@ -8105,16 +8117,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F10">
         <v>500</v>
@@ -8122,16 +8134,16 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11">
         <v>500</v>
@@ -8139,16 +8151,16 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F12">
         <v>500</v>
@@ -8156,16 +8168,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F13">
         <v>500</v>
@@ -8173,16 +8185,16 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F14">
         <v>500</v>
@@ -8190,16 +8202,16 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F15">
         <v>500</v>
@@ -8207,16 +8219,16 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F16">
         <v>500</v>
@@ -8224,16 +8236,16 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F17">
         <v>500</v>
@@ -8241,16 +8253,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F18">
         <v>500</v>
@@ -8258,16 +8270,16 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F19">
         <v>500</v>
@@ -8275,16 +8287,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F20">
         <v>500</v>
@@ -8292,16 +8304,16 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F21">
         <v>500</v>
@@ -8309,16 +8321,16 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
         <v>181</v>
-      </c>
-      <c r="D22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" t="s">
-        <v>184</v>
       </c>
       <c r="F22">
         <v>500</v>
@@ -8326,16 +8338,16 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F23">
         <v>500</v>
@@ -8343,16 +8355,16 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F24">
         <v>500</v>
@@ -8360,16 +8372,16 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F25">
         <v>500</v>
@@ -8377,16 +8389,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F26">
         <v>500</v>
@@ -8394,16 +8406,16 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27">
         <v>500</v>
@@ -8411,16 +8423,16 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F28">
         <v>500</v>
@@ -8428,16 +8440,16 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F29">
         <v>500</v>
@@ -8445,16 +8457,16 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F30">
         <v>500</v>
@@ -8462,16 +8474,16 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F31">
         <v>500</v>
@@ -8479,16 +8491,16 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F32">
         <v>500</v>
@@ -8496,16 +8508,16 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F33">
         <v>500</v>
@@ -8513,16 +8525,16 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F34">
         <v>500</v>
@@ -8530,16 +8542,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F35">
         <v>500</v>
@@ -8547,16 +8559,16 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F36">
         <v>500</v>
@@ -8564,16 +8576,16 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F37">
         <v>500</v>
@@ -8581,16 +8593,16 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F38">
         <v>500</v>
@@ -8598,16 +8610,16 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F39">
         <v>500</v>
@@ -8615,16 +8627,16 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" t="s">
         <v>200</v>
-      </c>
-      <c r="D40" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" t="s">
-        <v>203</v>
       </c>
       <c r="F40">
         <v>500</v>
@@ -8632,16 +8644,16 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F41">
         <v>500</v>
@@ -8649,16 +8661,16 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F42">
         <v>500</v>
@@ -8666,16 +8678,16 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F43">
         <v>500</v>
@@ -8683,16 +8695,16 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F44">
         <v>500</v>
@@ -8700,16 +8712,16 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F45">
         <v>500</v>
@@ -8717,16 +8729,16 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F46">
         <v>500</v>
@@ -8734,16 +8746,16 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F47">
         <v>500</v>
@@ -8751,16 +8763,16 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F48">
         <v>500</v>
@@ -8768,16 +8780,16 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F49">
         <v>500</v>
@@ -8785,16 +8797,16 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F50">
         <v>500</v>
@@ -8802,16 +8814,16 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F51">
         <v>500</v>
@@ -8819,16 +8831,16 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F52">
         <v>500</v>
@@ -8836,16 +8848,16 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F53">
         <v>500</v>
@@ -8853,16 +8865,16 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F54">
         <v>500</v>
@@ -8870,16 +8882,16 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F55">
         <v>500</v>
@@ -8887,16 +8899,16 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F56">
         <v>500</v>
@@ -8904,16 +8916,16 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F57">
         <v>500</v>
@@ -8921,16 +8933,16 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F58">
         <v>500</v>
@@ -8938,16 +8950,16 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E59" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F59">
         <v>500</v>
@@ -8955,16 +8967,16 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E60" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F60">
         <v>500</v>
@@ -8972,16 +8984,16 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E61" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F61">
         <v>500</v>
@@ -8989,16 +9001,16 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E62" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F62">
         <v>500</v>
@@ -9006,16 +9018,16 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F63">
         <v>500</v>
@@ -9023,16 +9035,16 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F64">
         <v>500</v>
@@ -9040,16 +9052,16 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F65">
         <v>500</v>
@@ -9057,16 +9069,16 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E66" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F66">
         <v>500</v>
@@ -9074,16 +9086,16 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F67">
         <v>500</v>
@@ -9091,16 +9103,16 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F68">
         <v>500</v>
@@ -9108,16 +9120,16 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F69">
         <v>500</v>
@@ -9125,16 +9137,16 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C70" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" t="s">
         <v>231</v>
-      </c>
-      <c r="D70" t="s">
-        <v>162</v>
-      </c>
-      <c r="E70" t="s">
-        <v>234</v>
       </c>
       <c r="F70">
         <v>500</v>
@@ -9142,16 +9154,16 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F71">
         <v>500</v>
@@ -9159,16 +9171,16 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E72" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F72">
         <v>500</v>
@@ -9176,16 +9188,16 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D73" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E73" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F73">
         <v>500</v>
@@ -9193,16 +9205,16 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E74" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F74">
         <v>500</v>
@@ -9210,16 +9222,16 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D75" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F75">
         <v>500</v>
@@ -9227,16 +9239,16 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D76" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F76">
         <v>500</v>
@@ -9244,16 +9256,16 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F77">
         <v>500</v>
@@ -9261,16 +9273,16 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E78" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F78">
         <v>500</v>
@@ -9278,16 +9290,16 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F79">
         <v>500</v>
@@ -9295,16 +9307,16 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E80" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F80">
         <v>500</v>
@@ -9312,16 +9324,16 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E81" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F81">
         <v>500</v>
@@ -9329,16 +9341,16 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E82" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F82">
         <v>500</v>
@@ -9346,16 +9358,16 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E83" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F83">
         <v>500</v>
@@ -9363,16 +9375,16 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E84" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F84">
         <v>500</v>
@@ -9380,16 +9392,16 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F85">
         <v>500</v>
@@ -9397,16 +9409,16 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E86" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F86">
         <v>500</v>
@@ -9414,16 +9426,16 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F87">
         <v>500</v>
@@ -9431,16 +9443,16 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D88" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E88" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F88">
         <v>500</v>
@@ -9448,16 +9460,16 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D89" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E89" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F89">
         <v>500</v>
@@ -9465,16 +9477,16 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D90" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E90" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F90">
         <v>500</v>
@@ -9482,16 +9494,16 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D91" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E91" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F91">
         <v>500</v>
@@ -9499,16 +9511,16 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E92" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F92">
         <v>500</v>
@@ -9516,16 +9528,16 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D93" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E93" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F93">
         <v>500</v>
@@ -9533,16 +9545,16 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C94" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" t="s">
         <v>256</v>
-      </c>
-      <c r="D94" t="s">
-        <v>162</v>
-      </c>
-      <c r="E94" t="s">
-        <v>259</v>
       </c>
       <c r="F94">
         <v>500</v>
@@ -9550,16 +9562,16 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D95" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F95">
         <v>500</v>
@@ -9567,16 +9579,16 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D96" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E96" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F96">
         <v>500</v>
@@ -9584,16 +9596,16 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D97" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F97">
         <v>500</v>
@@ -9601,16 +9613,16 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D98" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F98">
         <v>500</v>
@@ -9618,16 +9630,16 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D99" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E99" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F99">
         <v>500</v>
@@ -9635,16 +9647,16 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D100" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E100" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F100">
         <v>500</v>
@@ -9652,16 +9664,16 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D101" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E101" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F101">
         <v>500</v>
@@ -9669,16 +9681,16 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E102" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F102">
         <v>500</v>
@@ -9686,16 +9698,16 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D103" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E103" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F103">
         <v>500</v>
@@ -9703,16 +9715,16 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D104" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E104" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F104">
         <v>500</v>
@@ -9720,16 +9732,16 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D105" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E105" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F105">
         <v>500</v>
@@ -9737,16 +9749,16 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E106" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F106">
         <v>500</v>
@@ -9754,16 +9766,16 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D107" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E107" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F107">
         <v>500</v>
@@ -9771,16 +9783,16 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D108" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E108" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F108">
         <v>500</v>
@@ -9788,16 +9800,16 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D109" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E109" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F109">
         <v>500</v>
@@ -9805,16 +9817,16 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D110" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E110" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F110">
         <v>500</v>
@@ -9822,16 +9834,16 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D111" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E111" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F111">
         <v>500</v>
@@ -9839,16 +9851,16 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C112" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D112" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112" t="s">
         <v>275</v>
-      </c>
-      <c r="D112" t="s">
-        <v>162</v>
-      </c>
-      <c r="E112" t="s">
-        <v>278</v>
       </c>
       <c r="F112">
         <v>500</v>
@@ -9856,16 +9868,16 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D113" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E113" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F113">
         <v>500</v>
@@ -9873,16 +9885,16 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D114" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E114" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F114">
         <v>500</v>
@@ -9890,16 +9902,16 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D115" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E115" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F115">
         <v>500</v>
@@ -9907,16 +9919,16 @@
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D116" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E116" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F116">
         <v>500</v>
@@ -9924,16 +9936,16 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D117" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E117" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F117">
         <v>500</v>
@@ -9941,16 +9953,16 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D118" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E118" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F118">
         <v>500</v>
@@ -9958,16 +9970,16 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D119" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E119" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F119">
         <v>500</v>
@@ -9975,16 +9987,16 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D120" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E120" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F120">
         <v>500</v>
@@ -9992,16 +10004,16 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E121" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F121">
         <v>500</v>
@@ -10009,16 +10021,16 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D122" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E122" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F122">
         <v>500</v>
@@ -10026,16 +10038,16 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D123" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E123" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F123">
         <v>500</v>
@@ -10043,16 +10055,16 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D124" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E124" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F124">
         <v>500</v>
@@ -10060,16 +10072,16 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D125" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E125" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F125">
         <v>500</v>
@@ -10077,16 +10089,16 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D126" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E126" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F126">
         <v>500</v>
@@ -10094,16 +10106,16 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D127" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E127" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F127">
         <v>500</v>
@@ -10111,16 +10123,16 @@
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D128" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E128" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F128">
         <v>500</v>
@@ -10128,16 +10140,16 @@
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D129" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E129" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F129">
         <v>500</v>
@@ -10145,16 +10157,16 @@
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D130" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E130" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F130">
         <v>500</v>
@@ -10162,16 +10174,16 @@
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D131" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E131" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F131">
         <v>500</v>
@@ -10179,16 +10191,16 @@
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D132" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E132" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F132">
         <v>500</v>
@@ -10196,16 +10208,16 @@
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D133" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E133" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F133">
         <v>500</v>
@@ -10213,16 +10225,16 @@
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D134" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E134" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F134">
         <v>500</v>
@@ -10230,16 +10242,16 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D135" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E135" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F135">
         <v>500</v>
@@ -10247,16 +10259,16 @@
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C136" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D136" t="s">
+        <v>159</v>
+      </c>
+      <c r="E136" t="s">
         <v>300</v>
-      </c>
-      <c r="D136" t="s">
-        <v>162</v>
-      </c>
-      <c r="E136" t="s">
-        <v>303</v>
       </c>
       <c r="F136">
         <v>500</v>
@@ -10264,16 +10276,16 @@
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D137" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E137" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F137">
         <v>500</v>
@@ -10281,16 +10293,16 @@
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D138" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E138" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F138">
         <v>500</v>
@@ -10298,16 +10310,16 @@
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D139" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E139" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F139">
         <v>500</v>
@@ -10315,16 +10327,16 @@
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D140" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E140" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F140">
         <v>500</v>
@@ -10332,16 +10344,16 @@
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D141" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E141" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F141">
         <v>500</v>
@@ -10349,16 +10361,16 @@
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D142" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E142" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F142">
         <v>500</v>
@@ -10366,16 +10378,16 @@
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D143" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E143" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F143">
         <v>500</v>
@@ -10383,16 +10395,16 @@
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D144" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E144" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F144">
         <v>500</v>
@@ -10400,16 +10412,16 @@
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D145" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E145" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F145">
         <v>500</v>
@@ -10417,16 +10429,16 @@
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D146" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E146" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F146">
         <v>500</v>
@@ -10434,16 +10446,16 @@
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D147" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E147" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F147">
         <v>500</v>
@@ -10451,16 +10463,16 @@
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D148" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E148" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F148">
         <v>500</v>
@@ -10468,16 +10480,16 @@
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D149" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E149" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F149">
         <v>500</v>
@@ -10485,16 +10497,16 @@
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D150" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E150" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F150">
         <v>500</v>
@@ -10502,16 +10514,16 @@
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D151" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E151" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F151">
         <v>500</v>
@@ -10519,16 +10531,16 @@
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D152" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E152" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F152">
         <v>500</v>
@@ -10536,16 +10548,16 @@
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D153" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E153" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F153">
         <v>500</v>
@@ -10553,16 +10565,16 @@
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D154" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E154" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F154">
         <v>500</v>
@@ -10570,16 +10582,16 @@
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D155" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E155" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F155">
         <v>500</v>
@@ -10587,16 +10599,16 @@
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D156" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F156">
         <v>500</v>
@@ -10604,16 +10616,16 @@
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D157" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E157" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F157">
         <v>500</v>
@@ -10621,16 +10633,16 @@
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D158" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F158">
         <v>500</v>
@@ -10638,16 +10650,16 @@
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D159" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E159" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F159">
         <v>500</v>
@@ -10655,16 +10667,16 @@
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C160" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D160" t="s">
+        <v>159</v>
+      </c>
+      <c r="E160" t="s">
         <v>325</v>
-      </c>
-      <c r="D160" t="s">
-        <v>162</v>
-      </c>
-      <c r="E160" t="s">
-        <v>328</v>
       </c>
       <c r="F160">
         <v>500</v>
@@ -10672,16 +10684,16 @@
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D161" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E161" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F161">
         <v>500</v>
@@ -10689,16 +10701,16 @@
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D162" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E162" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F162">
         <v>500</v>
@@ -10706,16 +10718,16 @@
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D163" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E163" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F163">
         <v>500</v>
@@ -10723,16 +10735,16 @@
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D164" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E164" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F164">
         <v>500</v>
@@ -10740,16 +10752,16 @@
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D165" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E165" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F165">
         <v>500</v>
@@ -10757,16 +10769,16 @@
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D166" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E166" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F166">
         <v>500</v>
@@ -10774,16 +10786,16 @@
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D167" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E167" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F167">
         <v>500</v>
@@ -10791,16 +10803,16 @@
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D168" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E168" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F168">
         <v>500</v>
@@ -10808,16 +10820,16 @@
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D169" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F169">
         <v>500</v>
@@ -10825,16 +10837,16 @@
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D170" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F170">
         <v>500</v>
@@ -10842,16 +10854,16 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D171" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F171">
         <v>500</v>
@@ -10859,16 +10871,16 @@
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D172" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F172">
         <v>500</v>
@@ -10876,16 +10888,16 @@
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D173" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173">
         <v>500</v>
@@ -10893,16 +10905,16 @@
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D174" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E174" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F174">
         <v>500</v>
@@ -10910,16 +10922,16 @@
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D175" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F175">
         <v>500</v>
@@ -10927,16 +10939,16 @@
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D176" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E176" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F176">
         <v>500</v>
@@ -10944,16 +10956,16 @@
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D177" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F177">
         <v>500</v>
@@ -10961,16 +10973,16 @@
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D178" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E178" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F178">
         <v>500</v>
@@ -10978,16 +10990,16 @@
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D179" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F179">
         <v>500</v>
@@ -10995,16 +11007,16 @@
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D180" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E180" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F180">
         <v>500</v>
@@ -11012,16 +11024,16 @@
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D181" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F181">
         <v>500</v>
